--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8570.65</v>
+        <v>9060.1</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8570.65</v>
+        <v>9060.1</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8570.65</v>
+        <v>9060.1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,18 +436,26 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9060.1</v>
+        <v>9005.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8994.370000000001</v>
       </c>
     </row>
     <row r="3">
@@ -457,17 +465,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9060.1</v>
+        <v>9005.42</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8994.370000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9060.1</v>
+        <v>9005.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8994.370000000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,13 +443,10 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9005.42</v>
-      </c>
-      <c r="C2" t="n">
         <v>8994.370000000001</v>
       </c>
     </row>
@@ -465,22 +457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9005.42</v>
-      </c>
-      <c r="C3" t="n">
         <v>8994.370000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9005.42</v>
-      </c>
-      <c r="C4" t="n">
         <v>8994.370000000001</v>
       </c>
     </row>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,15 +439,23 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>8994.370000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9003.809999999999</v>
       </c>
     </row>
     <row r="3">
@@ -459,15 +467,21 @@
       <c r="B3" t="n">
         <v>8994.370000000001</v>
       </c>
+      <c r="C3" t="n">
+        <v>9003.809999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>8994.370000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9003.809999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>9003.809999999999</v>
       </c>
+      <c r="D2" t="n">
+        <v>8680.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>9003.809999999999</v>
       </c>
+      <c r="D3" t="n">
+        <v>8680.07</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>9003.809999999999</v>
       </c>
+      <c r="D4" t="n">
+        <v>8680.07</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>8680.07</v>
       </c>
+      <c r="E2" t="n">
+        <v>8961.809999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>8680.07</v>
       </c>
+      <c r="E3" t="n">
+        <v>8961.809999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -496,6 +507,9 @@
       </c>
       <c r="D4" t="n">
         <v>8680.07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8961.809999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>8961.809999999999</v>
       </c>
+      <c r="F2" t="n">
+        <v>8644.379999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>8961.809999999999</v>
       </c>
+      <c r="F3" t="n">
+        <v>8644.379999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -510,6 +521,9 @@
       </c>
       <c r="E4" t="n">
         <v>8961.809999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8644.379999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>8644.379999999999</v>
       </c>
+      <c r="G2" t="n">
+        <v>8301.25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>8644.379999999999</v>
       </c>
+      <c r="G3" t="n">
+        <v>8301.25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -524,6 +535,9 @@
       </c>
       <c r="F4" t="n">
         <v>8644.379999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8301.25</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>8301.25</v>
       </c>
+      <c r="H2" t="n">
+        <v>8331.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>8301.25</v>
       </c>
+      <c r="H3" t="n">
+        <v>8331.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>8301.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8331.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>8331.4</v>
       </c>
+      <c r="I2" t="n">
+        <v>8279.459999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>8331.4</v>
       </c>
+      <c r="I3" t="n">
+        <v>8279.459999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -552,6 +563,9 @@
       </c>
       <c r="H4" t="n">
         <v>8331.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8279.459999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>8279.459999999999</v>
       </c>
+      <c r="J2" t="n">
+        <v>9260.17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>8279.459999999999</v>
       </c>
+      <c r="J3" t="n">
+        <v>9260.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -566,6 +577,9 @@
       </c>
       <c r="I4" t="n">
         <v>8279.459999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9260.17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>9260.17</v>
       </c>
+      <c r="K2" t="n">
+        <v>9309.139999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>9260.17</v>
       </c>
+      <c r="K3" t="n">
+        <v>9309.139999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -580,6 +591,9 @@
       </c>
       <c r="J4" t="n">
         <v>9260.17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9309.139999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>9309.139999999999</v>
       </c>
+      <c r="L2" t="n">
+        <v>8314.629999999999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>9309.139999999999</v>
       </c>
+      <c r="L3" t="n">
+        <v>8314.629999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -594,6 +605,9 @@
       </c>
       <c r="K4" t="n">
         <v>9309.139999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8314.629999999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GBAN.xlsx
+++ b/backend/src/excel_handler/files/GBAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>8314.629999999999</v>
       </c>
+      <c r="M2" t="n">
+        <v>9046.08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>8314.629999999999</v>
       </c>
+      <c r="M3" t="n">
+        <v>9046.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -608,6 +619,9 @@
       </c>
       <c r="L4" t="n">
         <v>8314.629999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9046.08</v>
       </c>
     </row>
   </sheetData>
